--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C622718-E819-4731-970A-067B288F64A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35E2E9-7109-4D95-8F39-02F2CC5D80DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>名前</t>
   </si>
@@ -53,13 +53,10 @@
     <t>パブリッシュ</t>
   </si>
   <si>
-    <t>保存フォルダーパス</t>
+    <t>保存フォルダーのパス</t>
   </si>
   <si>
-    <t>パッケージファイルパス</t>
-  </si>
-  <si>
-    <t>パッケージのファイルパス</t>
+    <t>パッケージファイルのパス</t>
   </si>
 </sst>
 </file>
@@ -287,12 +284,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -577,24 +568,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -693,6 +669,27 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -707,51 +704,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="19" dataDxfId="17" totalsRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名前" totalsRowLabel="Total" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="バージョン" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="キー" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="パブリッシュ" totalsRowFunction="count" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名前" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="バージョン" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="キー" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="パブリッシュ" totalsRowFunction="count" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="バージョン" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="キー" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="バージョン" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="キー" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="名前" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="バージョン" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="保存フォルダーパス" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="パッケージファイルパス" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="結果" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="名前" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="バージョン" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="保存フォルダーのパス" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="パッケージファイルのパス" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="結果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="パッケージのファイルパス" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="結果" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="パッケージファイルのパス" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4965,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35E2E9-7109-4D95-8F39-02F2CC5D80DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CADB7B-9143-445D-AEF7-5087DCEDC8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,10 +1025,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="12" customWidth="1"/>
+    <col min="1" max="2" width="25.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="12" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
@@ -2268,10 +2267,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.54296875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="45.6328125" style="7" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
@@ -3511,11 +3509,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="35.08984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" style="7" customWidth="1"/>
+    <col min="1" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="45.6328125" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
@@ -4955,8 +4950,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="45.6328125" style="7" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CADB7B-9143-445D-AEF7-5087DCEDC8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A73910-21B1-4C08-9E9C-5C45255287D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="削除" sheetId="2" r:id="rId2"/>
     <sheet name="ダウンロード" sheetId="5" r:id="rId3"/>
     <sheet name="アップロード" sheetId="6" r:id="rId4"/>
+    <sheet name="参照するエンティティを取得" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>名前</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>パッケージファイルのパス</t>
+  </si>
+  <si>
+    <t>参照するエンティティのブックのパス</t>
   </si>
 </sst>
 </file>
@@ -211,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -279,11 +283,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -704,51 +810,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名前" totalsRowLabel="Total" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="バージョン" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="キー" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="パブリッシュ" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名前" totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="バージョン" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="キー" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="パブリッシュ" totalsRowFunction="count" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="バージョン" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="キー" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="バージョン" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="キー" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="名前" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="バージョン" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="保存フォルダーのパス" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="パッケージファイルのパス" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="結果" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="名前" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="バージョン" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="保存フォルダーのパス" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="パッケージファイルのパス" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="パッケージファイルのパス" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="結果" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="パッケージファイルのパス" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{09498B78-9EFA-4A82-B386-3BA14252F6DC}" name="Table1357" displayName="Table1357" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{A061FC33-DC7F-45A1-BF29-F8413B592084}" name="名前" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{54F98791-D344-49CF-BC5A-22B46CFD72FF}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E7B42F35-40AC-420F-A38E-1E3A7EED4213}" name="参照するエンティティのブックのパス" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6983041A-DBB9-4F50-82B1-BB304DC0F3FD}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5769,4 +5888,1242 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668045FD-6CA9-4DD0-A5E0-3E4D24ED07D8}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="45.7265625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="16"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="16"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="16"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="16"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="16"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="16"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="16"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="16"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="16"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="16"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="16"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="16"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="16"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="16"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="16"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="16"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="16"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="16"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="16"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="16"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="16"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="16"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="16"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="16"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="16"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="16"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="16"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="16"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="16"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="16"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="16"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="16"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="16"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="16"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="16"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="16"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="16"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="16"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="16"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="16"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="16"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="16"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="16"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="16"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="16"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="16"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="16"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="16"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="16"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="16"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="16"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="16"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="16"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="16"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="16"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="16"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="16"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="16"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="16"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="16"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="16"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="16"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="16"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="16"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="16"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="16"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="16"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="16"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="16"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="16"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="16"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="16"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="16"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="16"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="16"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="16"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="16"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="16"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="16"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="16"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="16"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="16"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="16"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="16"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="16"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="16"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="16"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="16"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="16"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="16"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="16"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="16"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="16"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="16"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="16"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="16"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="16"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="16"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="16"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="16"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="16"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="16"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="16"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="16"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="16"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="16"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="16"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="16"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="16"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="16"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="16"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="16"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="16"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="16"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="16"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="16"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="16"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="16"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="16"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="16"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="16"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="16"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="16"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="16"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="16"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="16"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="20"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8261A76-2EC4-433F-B127-E973114BA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A16938-8CD9-466B-9668-B04524084660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A16938-8CD9-466B-9668-B04524084660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842B5E7-EB9B-4033-9DD2-8CF9F0D50886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1138,6 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2381,6 +2382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,6 +3626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52AF1B-FEA9-400B-B25F-5CC9DBA0545D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5066,6 +5069,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D997E2-C27D-4E23-8AA3-555FF2297484}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5897,6 +5901,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F75DB2-D887-4D1E-A46B-217AC1A634EB}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842B5E7-EB9B-4033-9DD2-8CF9F0D50886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99B111-DDE5-4848-BEC7-83E740E3AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99B111-DDE5-4848-BEC7-83E740E3AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D15930-48D4-4F9D-85F7-CFA27B2CD113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D15930-48D4-4F9D-85F7-CFA27B2CD113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2352EA-C5D5-46A6-A742-20AA76D66753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2352EA-C5D5-46A6-A742-20AA76D66753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424AB67-3786-4C0B-A467-29085CAE13EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424AB67-3786-4C0B-A467-29085CAE13EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D36F46-D66E-41EE-BECE-5814633C0169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D36F46-D66E-41EE-BECE-5814633C0169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C9291-18A0-4D42-8B1F-91C8F5986C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C9291-18A0-4D42-8B1F-91C8F5986C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C1E763-1B11-4FFF-8A8B-11914E557ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C1E763-1B11-4FFF-8A8B-11914E557ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684320B4-5A10-41CE-B904-31D86AD0F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684320B4-5A10-41CE-B904-31D86AD0F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A81374-3D07-467C-A7CE-B78C77421184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
@@ -1153,7 +1153,7 @@
     <col min="4" max="4" width="25.75" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,1201 +1167,1201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="13"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="13"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="13"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="13"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="13"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="13"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="13"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="13"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="13"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="13"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="13"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="13"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="13"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="13"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="13"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="13"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="13"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="13"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="13"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="13"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="13"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="13"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="13"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="13"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="13"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="13"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="13"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="13"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="12"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="12"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="12"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="12"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="12"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="12"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="12"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="12"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="12"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="12"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="12"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="12"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="12"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="12"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="12"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="12"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="12"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="12"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="12"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="12"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="12"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="12"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="12"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="12"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="12"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="12"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="12"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="12"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="12"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="12"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="12"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="12"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="12"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="12"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="12"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="12"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="12"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="12"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="12"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="12"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="12"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="12"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="12"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="12"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="12"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="12"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="12"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="12"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="23"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="14"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="12"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2389,7 +2389,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="24" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -2397,7 +2397,7 @@
     <col min="4" max="4" width="45.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2411,1201 +2411,1201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="25"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -3633,14 +3633,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="26" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="5" width="45.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3657,1400 +3657,1400 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="17"/>
       <c r="C3" s="21"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
       <c r="C4" s="21"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="17"/>
       <c r="C5" s="21"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="17"/>
       <c r="C6" s="21"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="28"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="28"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="28"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="28"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="28"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="28"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="28"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="28"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="28"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="28"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="28"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="28"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="28"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="28"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="28"/>
       <c r="B33" s="17"/>
       <c r="C33" s="21"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="28"/>
       <c r="B34" s="17"/>
       <c r="C34" s="21"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="28"/>
       <c r="B35" s="17"/>
       <c r="C35" s="21"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
       <c r="C36" s="21"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="28"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="28"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="28"/>
       <c r="B39" s="17"/>
       <c r="C39" s="21"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
       <c r="B40" s="17"/>
       <c r="C40" s="21"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="28"/>
       <c r="B41" s="17"/>
       <c r="C41" s="21"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="17"/>
       <c r="C42" s="21"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="28"/>
       <c r="B43" s="17"/>
       <c r="C43" s="21"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="28"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="28"/>
       <c r="B45" s="17"/>
       <c r="C45" s="21"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="28"/>
       <c r="B46" s="17"/>
       <c r="C46" s="21"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="28"/>
       <c r="B47" s="17"/>
       <c r="C47" s="21"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="28"/>
       <c r="B48" s="17"/>
       <c r="C48" s="21"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="28"/>
       <c r="B49" s="17"/>
       <c r="C49" s="21"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="28"/>
       <c r="B50" s="17"/>
       <c r="C50" s="21"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="28"/>
       <c r="B51" s="17"/>
       <c r="C51" s="21"/>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="28"/>
       <c r="B52" s="17"/>
       <c r="C52" s="21"/>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="28"/>
       <c r="B53" s="17"/>
       <c r="C53" s="21"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="28"/>
       <c r="B54" s="17"/>
       <c r="C54" s="21"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="28"/>
       <c r="B55" s="17"/>
       <c r="C55" s="21"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="28"/>
       <c r="B56" s="17"/>
       <c r="C56" s="21"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="28"/>
       <c r="B57" s="17"/>
       <c r="C57" s="21"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="28"/>
       <c r="B58" s="17"/>
       <c r="C58" s="21"/>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="28"/>
       <c r="B59" s="17"/>
       <c r="C59" s="21"/>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="28"/>
       <c r="B60" s="17"/>
       <c r="C60" s="21"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="17"/>
       <c r="C61" s="21"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="28"/>
       <c r="B62" s="17"/>
       <c r="C62" s="21"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="28"/>
       <c r="B63" s="17"/>
       <c r="C63" s="21"/>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="28"/>
       <c r="B64" s="17"/>
       <c r="C64" s="21"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="28"/>
       <c r="B65" s="17"/>
       <c r="C65" s="21"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="28"/>
       <c r="B66" s="17"/>
       <c r="C66" s="21"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="28"/>
       <c r="B67" s="17"/>
       <c r="C67" s="21"/>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="28"/>
       <c r="B68" s="17"/>
       <c r="C68" s="21"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="28"/>
       <c r="B69" s="17"/>
       <c r="C69" s="21"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="28"/>
       <c r="B70" s="17"/>
       <c r="C70" s="21"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="28"/>
       <c r="B71" s="17"/>
       <c r="C71" s="21"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="28"/>
       <c r="B72" s="17"/>
       <c r="C72" s="21"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="28"/>
       <c r="B73" s="17"/>
       <c r="C73" s="21"/>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="28"/>
       <c r="B74" s="17"/>
       <c r="C74" s="21"/>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="28"/>
       <c r="B75" s="17"/>
       <c r="C75" s="21"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="28"/>
       <c r="B76" s="17"/>
       <c r="C76" s="21"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="28"/>
       <c r="B77" s="17"/>
       <c r="C77" s="21"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="28"/>
       <c r="B78" s="17"/>
       <c r="C78" s="21"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="28"/>
       <c r="B79" s="17"/>
       <c r="C79" s="21"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="28"/>
       <c r="B80" s="17"/>
       <c r="C80" s="21"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="28"/>
       <c r="B81" s="17"/>
       <c r="C81" s="21"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="28"/>
       <c r="B82" s="17"/>
       <c r="C82" s="21"/>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="28"/>
       <c r="B83" s="17"/>
       <c r="C83" s="21"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="28"/>
       <c r="B84" s="17"/>
       <c r="C84" s="21"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="28"/>
       <c r="B85" s="17"/>
       <c r="C85" s="21"/>
       <c r="D85" s="31"/>
       <c r="E85" s="31"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="28"/>
       <c r="B86" s="17"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="28"/>
       <c r="B87" s="17"/>
       <c r="C87" s="21"/>
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="28"/>
       <c r="B88" s="17"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="28"/>
       <c r="B89" s="17"/>
       <c r="C89" s="21"/>
       <c r="D89" s="31"/>
       <c r="E89" s="31"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="28"/>
       <c r="B90" s="17"/>
       <c r="C90" s="21"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="28"/>
       <c r="B91" s="17"/>
       <c r="C91" s="21"/>
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="28"/>
       <c r="B92" s="17"/>
       <c r="C92" s="21"/>
       <c r="D92" s="31"/>
       <c r="E92" s="31"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="28"/>
       <c r="B93" s="17"/>
       <c r="C93" s="21"/>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="17"/>
       <c r="C94" s="21"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="17"/>
       <c r="C95" s="21"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="28"/>
       <c r="B96" s="17"/>
       <c r="C96" s="21"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="28"/>
       <c r="B97" s="17"/>
       <c r="C97" s="21"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="28"/>
       <c r="B98" s="17"/>
       <c r="C98" s="21"/>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="28"/>
       <c r="B99" s="17"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="28"/>
       <c r="B100" s="17"/>
       <c r="C100" s="21"/>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="28"/>
       <c r="B101" s="17"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="28"/>
       <c r="B102" s="17"/>
       <c r="C102" s="21"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="28"/>
       <c r="B103" s="17"/>
       <c r="C103" s="21"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="28"/>
       <c r="B104" s="17"/>
       <c r="C104" s="21"/>
       <c r="D104" s="31"/>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="28"/>
       <c r="B105" s="17"/>
       <c r="C105" s="21"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="28"/>
       <c r="B106" s="17"/>
       <c r="C106" s="21"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="28"/>
       <c r="B107" s="17"/>
       <c r="C107" s="21"/>
       <c r="D107" s="31"/>
       <c r="E107" s="31"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="28"/>
       <c r="B108" s="17"/>
       <c r="C108" s="21"/>
       <c r="D108" s="31"/>
       <c r="E108" s="31"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="28"/>
       <c r="B109" s="17"/>
       <c r="C109" s="21"/>
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="28"/>
       <c r="B110" s="17"/>
       <c r="C110" s="21"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="28"/>
       <c r="B111" s="17"/>
       <c r="C111" s="21"/>
       <c r="D111" s="31"/>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="28"/>
       <c r="B112" s="17"/>
       <c r="C112" s="21"/>
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="28"/>
       <c r="B113" s="17"/>
       <c r="C113" s="21"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="28"/>
       <c r="B114" s="17"/>
       <c r="C114" s="21"/>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="28"/>
       <c r="B115" s="17"/>
       <c r="C115" s="21"/>
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="28"/>
       <c r="B116" s="17"/>
       <c r="C116" s="21"/>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="28"/>
       <c r="B117" s="17"/>
       <c r="C117" s="21"/>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="28"/>
       <c r="B118" s="17"/>
       <c r="C118" s="21"/>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="28"/>
       <c r="B119" s="17"/>
       <c r="C119" s="21"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="28"/>
       <c r="B120" s="17"/>
       <c r="C120" s="21"/>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="28"/>
       <c r="B121" s="17"/>
       <c r="C121" s="21"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="28"/>
       <c r="B122" s="17"/>
       <c r="C122" s="21"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="28"/>
       <c r="B123" s="17"/>
       <c r="C123" s="21"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="28"/>
       <c r="B124" s="17"/>
       <c r="C124" s="21"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="28"/>
       <c r="B125" s="17"/>
       <c r="C125" s="21"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="28"/>
       <c r="B126" s="17"/>
       <c r="C126" s="21"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="28"/>
       <c r="B127" s="17"/>
       <c r="C127" s="21"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="28"/>
       <c r="B128" s="17"/>
       <c r="C128" s="21"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="28"/>
       <c r="B129" s="17"/>
       <c r="C129" s="21"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="28"/>
       <c r="B130" s="17"/>
       <c r="C130" s="21"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="28"/>
       <c r="B131" s="17"/>
       <c r="C131" s="21"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="28"/>
       <c r="B132" s="17"/>
       <c r="C132" s="21"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="28"/>
       <c r="B133" s="17"/>
       <c r="C133" s="21"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="28"/>
       <c r="B134" s="17"/>
       <c r="C134" s="21"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="28"/>
       <c r="B135" s="17"/>
       <c r="C135" s="21"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="28"/>
       <c r="B136" s="17"/>
       <c r="C136" s="21"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="28"/>
       <c r="B137" s="17"/>
       <c r="C137" s="21"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="28"/>
       <c r="B138" s="17"/>
       <c r="C138" s="21"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="28"/>
       <c r="B139" s="17"/>
       <c r="C139" s="21"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="28"/>
       <c r="B140" s="17"/>
       <c r="C140" s="21"/>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="28"/>
       <c r="B141" s="17"/>
       <c r="C141" s="21"/>
       <c r="D141" s="31"/>
       <c r="E141" s="31"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="28"/>
       <c r="B142" s="17"/>
       <c r="C142" s="21"/>
       <c r="D142" s="31"/>
       <c r="E142" s="31"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="28"/>
       <c r="B143" s="17"/>
       <c r="C143" s="21"/>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="28"/>
       <c r="B144" s="17"/>
       <c r="C144" s="21"/>
       <c r="D144" s="31"/>
       <c r="E144" s="31"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="28"/>
       <c r="B145" s="17"/>
       <c r="C145" s="21"/>
       <c r="D145" s="31"/>
       <c r="E145" s="31"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="28"/>
       <c r="B146" s="17"/>
       <c r="C146" s="21"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="28"/>
       <c r="B147" s="17"/>
       <c r="C147" s="21"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="28"/>
       <c r="B148" s="17"/>
       <c r="C148" s="21"/>
       <c r="D148" s="31"/>
       <c r="E148" s="31"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="28"/>
       <c r="B149" s="17"/>
       <c r="C149" s="21"/>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="28"/>
       <c r="B150" s="17"/>
       <c r="C150" s="21"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="28"/>
       <c r="B151" s="17"/>
       <c r="C151" s="21"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="28"/>
       <c r="B152" s="17"/>
       <c r="C152" s="21"/>
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="28"/>
       <c r="B153" s="17"/>
       <c r="C153" s="21"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="28"/>
       <c r="B154" s="17"/>
       <c r="C154" s="21"/>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="28"/>
       <c r="B155" s="17"/>
       <c r="C155" s="21"/>
       <c r="D155" s="31"/>
       <c r="E155" s="31"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="28"/>
       <c r="B156" s="17"/>
       <c r="C156" s="21"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="28"/>
       <c r="B157" s="17"/>
       <c r="C157" s="21"/>
       <c r="D157" s="31"/>
       <c r="E157" s="31"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="28"/>
       <c r="B158" s="17"/>
       <c r="C158" s="21"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="28"/>
       <c r="B159" s="17"/>
       <c r="C159" s="21"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="28"/>
       <c r="B160" s="17"/>
       <c r="C160" s="21"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="28"/>
       <c r="B161" s="17"/>
       <c r="C161" s="21"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="28"/>
       <c r="B162" s="17"/>
       <c r="C162" s="21"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="28"/>
       <c r="B163" s="17"/>
       <c r="C163" s="21"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="28"/>
       <c r="B164" s="17"/>
       <c r="C164" s="21"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="28"/>
       <c r="B165" s="17"/>
       <c r="C165" s="21"/>
       <c r="D165" s="31"/>
       <c r="E165" s="31"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="28"/>
       <c r="B166" s="17"/>
       <c r="C166" s="21"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="28"/>
       <c r="B167" s="17"/>
       <c r="C167" s="21"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="28"/>
       <c r="B168" s="17"/>
       <c r="C168" s="21"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="28"/>
       <c r="B169" s="17"/>
       <c r="C169" s="21"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="28"/>
       <c r="B170" s="17"/>
       <c r="C170" s="21"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="28"/>
       <c r="B171" s="17"/>
       <c r="C171" s="21"/>
       <c r="D171" s="31"/>
       <c r="E171" s="31"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="28"/>
       <c r="B172" s="17"/>
       <c r="C172" s="21"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="28"/>
       <c r="B173" s="17"/>
       <c r="C173" s="21"/>
       <c r="D173" s="31"/>
       <c r="E173" s="31"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="28"/>
       <c r="B174" s="17"/>
       <c r="C174" s="21"/>
       <c r="D174" s="31"/>
       <c r="E174" s="31"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="28"/>
       <c r="B175" s="17"/>
       <c r="C175" s="21"/>
       <c r="D175" s="31"/>
       <c r="E175" s="31"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="28"/>
       <c r="B176" s="17"/>
       <c r="C176" s="21"/>
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="28"/>
       <c r="B177" s="17"/>
       <c r="C177" s="21"/>
       <c r="D177" s="31"/>
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="28"/>
       <c r="B178" s="17"/>
       <c r="C178" s="21"/>
       <c r="D178" s="31"/>
       <c r="E178" s="31"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="28"/>
       <c r="B179" s="17"/>
       <c r="C179" s="21"/>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="28"/>
       <c r="B180" s="17"/>
       <c r="C180" s="21"/>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="28"/>
       <c r="B181" s="17"/>
       <c r="C181" s="21"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="28"/>
       <c r="B182" s="17"/>
       <c r="C182" s="21"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="28"/>
       <c r="B183" s="17"/>
       <c r="C183" s="21"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="28"/>
       <c r="B184" s="17"/>
       <c r="C184" s="21"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="28"/>
       <c r="B185" s="17"/>
       <c r="C185" s="21"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="28"/>
       <c r="B186" s="17"/>
       <c r="C186" s="21"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="28"/>
       <c r="B187" s="17"/>
       <c r="C187" s="21"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="28"/>
       <c r="B188" s="17"/>
       <c r="C188" s="21"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="28"/>
       <c r="B189" s="17"/>
       <c r="C189" s="21"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="28"/>
       <c r="B190" s="17"/>
       <c r="C190" s="21"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="28"/>
       <c r="B191" s="17"/>
       <c r="C191" s="21"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="28"/>
       <c r="B192" s="17"/>
       <c r="C192" s="21"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="28"/>
       <c r="B193" s="17"/>
       <c r="C193" s="21"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="28"/>
       <c r="B194" s="17"/>
       <c r="C194" s="21"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="28"/>
       <c r="B195" s="17"/>
       <c r="C195" s="21"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="28"/>
       <c r="B196" s="17"/>
       <c r="C196" s="21"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="28"/>
       <c r="B197" s="17"/>
       <c r="C197" s="21"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="28"/>
       <c r="B198" s="17"/>
       <c r="C198" s="21"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="28"/>
       <c r="B199" s="17"/>
       <c r="C199" s="21"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="28"/>
       <c r="B200" s="17"/>
       <c r="C200" s="21"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="29"/>
       <c r="B201" s="22"/>
       <c r="C201" s="30"/>
@@ -5076,12 +5076,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="45.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -5089,803 +5089,803 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="32"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="21"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="21"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="21"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="21"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="21"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="21"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="31"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="31"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="21"/>
       <c r="B17" s="31"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
       <c r="B18" s="31"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="21"/>
       <c r="B19" s="31"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="31"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="31"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
       <c r="B23" s="31"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
       <c r="B24" s="31"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
       <c r="B25" s="31"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="21"/>
       <c r="B29" s="31"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="21"/>
       <c r="B30" s="31"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
       <c r="B31" s="31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="21"/>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="21"/>
       <c r="B33" s="31"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="21"/>
       <c r="B34" s="31"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="21"/>
       <c r="B35" s="31"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="21"/>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="21"/>
       <c r="B37" s="31"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="21"/>
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="21"/>
       <c r="B39" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="21"/>
       <c r="B40" s="31"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="21"/>
       <c r="B41" s="31"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="21"/>
       <c r="B42" s="31"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="21"/>
       <c r="B43" s="31"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="31"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="21"/>
       <c r="B45" s="31"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="21"/>
       <c r="B46" s="31"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="21"/>
       <c r="B47" s="31"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="31"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="21"/>
       <c r="B49" s="31"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
       <c r="B50" s="31"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="21"/>
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="21"/>
       <c r="B52" s="31"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="21"/>
       <c r="B53" s="31"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="21"/>
       <c r="B54" s="31"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="31"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="21"/>
       <c r="B56" s="31"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="31"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="21"/>
       <c r="B58" s="31"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
       <c r="B59" s="31"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="21"/>
       <c r="B60" s="31"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="21"/>
       <c r="B61" s="31"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="21"/>
       <c r="B62" s="31"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="21"/>
       <c r="B63" s="31"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="21"/>
       <c r="B64" s="31"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="21"/>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="21"/>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="31"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="21"/>
       <c r="B69" s="31"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="21"/>
       <c r="B70" s="31"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="21"/>
       <c r="B71" s="31"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="31"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="21"/>
       <c r="B73" s="31"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="21"/>
       <c r="B74" s="31"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="31"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="21"/>
       <c r="B76" s="31"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="21"/>
       <c r="B77" s="31"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="21"/>
       <c r="B78" s="31"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="31"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="21"/>
       <c r="B80" s="31"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="31"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="21"/>
       <c r="B82" s="31"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="21"/>
       <c r="B83" s="31"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="21"/>
       <c r="B84" s="31"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="21"/>
       <c r="B85" s="31"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="21"/>
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="21"/>
       <c r="B88" s="31"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="21"/>
       <c r="B89" s="31"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="21"/>
       <c r="B90" s="31"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="21"/>
       <c r="B91" s="31"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="21"/>
       <c r="B92" s="31"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="21"/>
       <c r="B93" s="31"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="21"/>
       <c r="B94" s="31"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="21"/>
       <c r="B95" s="31"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="21"/>
       <c r="B96" s="31"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="21"/>
       <c r="B97" s="31"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="21"/>
       <c r="B98" s="31"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="21"/>
       <c r="B99" s="31"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="21"/>
       <c r="B100" s="31"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="21"/>
       <c r="B101" s="31"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="21"/>
       <c r="B102" s="31"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="21"/>
       <c r="B103" s="31"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="21"/>
       <c r="B104" s="31"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="21"/>
       <c r="B105" s="31"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="21"/>
       <c r="B106" s="31"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="21"/>
       <c r="B107" s="31"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="21"/>
       <c r="B108" s="31"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="21"/>
       <c r="B109" s="31"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="21"/>
       <c r="B110" s="31"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="21"/>
       <c r="B111" s="31"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="21"/>
       <c r="B112" s="31"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="21"/>
       <c r="B113" s="31"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="21"/>
       <c r="B114" s="31"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="21"/>
       <c r="B115" s="31"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="21"/>
       <c r="B116" s="31"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="21"/>
       <c r="B117" s="31"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="21"/>
       <c r="B118" s="31"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="21"/>
       <c r="B119" s="31"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="21"/>
       <c r="B120" s="31"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="21"/>
       <c r="B121" s="31"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="21"/>
       <c r="B122" s="31"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="21"/>
       <c r="B123" s="31"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="21"/>
       <c r="B124" s="31"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="21"/>
       <c r="B125" s="31"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="21"/>
       <c r="B126" s="31"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="21"/>
       <c r="B127" s="31"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="21"/>
       <c r="B128" s="31"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="21"/>
       <c r="B129" s="31"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="21"/>
       <c r="B130" s="31"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="21"/>
       <c r="B131" s="31"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="21"/>
       <c r="B132" s="31"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="21"/>
       <c r="B133" s="31"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="21"/>
       <c r="B134" s="31"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="21"/>
       <c r="B135" s="31"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="21"/>
       <c r="B136" s="31"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="21"/>
       <c r="B137" s="31"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="21"/>
       <c r="B138" s="31"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="21"/>
       <c r="B139" s="31"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="21"/>
       <c r="B140" s="31"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="21"/>
       <c r="B141" s="31"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="21"/>
       <c r="B142" s="31"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="21"/>
       <c r="B143" s="31"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="21"/>
       <c r="B144" s="31"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="21"/>
       <c r="B145" s="31"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="21"/>
       <c r="B146" s="31"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="21"/>
       <c r="B147" s="31"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="21"/>
       <c r="B148" s="31"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="21"/>
       <c r="B149" s="31"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="21"/>
       <c r="B150" s="31"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="21"/>
       <c r="B151" s="31"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="21"/>
       <c r="B152" s="31"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="21"/>
       <c r="B153" s="31"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="21"/>
       <c r="B154" s="31"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="21"/>
       <c r="B155" s="31"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="21"/>
       <c r="B156" s="31"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="21"/>
       <c r="B157" s="31"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="21"/>
       <c r="B158" s="31"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="21"/>
       <c r="B159" s="31"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="21"/>
       <c r="B160" s="31"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="21"/>
       <c r="B161" s="31"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="21"/>
       <c r="B162" s="31"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="21"/>
       <c r="B163" s="31"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="21"/>
       <c r="B164" s="31"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="21"/>
       <c r="B165" s="31"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="21"/>
       <c r="B166" s="31"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="21"/>
       <c r="B167" s="31"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="21"/>
       <c r="B168" s="31"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="21"/>
       <c r="B169" s="31"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="21"/>
       <c r="B170" s="31"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="21"/>
       <c r="B171" s="31"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="21"/>
       <c r="B172" s="31"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="21"/>
       <c r="B173" s="31"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="21"/>
       <c r="B174" s="31"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="21"/>
       <c r="B175" s="31"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="21"/>
       <c r="B176" s="31"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="21"/>
       <c r="B177" s="31"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="21"/>
       <c r="B178" s="31"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="21"/>
       <c r="B179" s="31"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="21"/>
       <c r="B180" s="31"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="21"/>
       <c r="B181" s="31"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="21"/>
       <c r="B182" s="31"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="21"/>
       <c r="B183" s="31"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="21"/>
       <c r="B184" s="31"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="21"/>
       <c r="B185" s="31"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="21"/>
       <c r="B186" s="31"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="21"/>
       <c r="B187" s="31"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="21"/>
       <c r="B188" s="31"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="21"/>
       <c r="B189" s="31"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="21"/>
       <c r="B190" s="31"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="21"/>
       <c r="B191" s="31"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="21"/>
       <c r="B192" s="31"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="21"/>
       <c r="B193" s="31"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="21"/>
       <c r="B194" s="31"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="21"/>
       <c r="B195" s="31"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="21"/>
       <c r="B196" s="31"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="21"/>
       <c r="B197" s="31"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="21"/>
       <c r="B198" s="31"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="21"/>
       <c r="B199" s="31"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="21"/>
       <c r="B200" s="31"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="30"/>
       <c r="B201" s="31"/>
     </row>
@@ -5908,14 +5908,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="26" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="4" width="45.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5929,1201 +5929,1201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="20"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="17"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="17"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="17"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="17"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="17"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="28"/>
       <c r="B9" s="17"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="28"/>
       <c r="B10" s="17"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="28"/>
       <c r="B11" s="17"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="17"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="17"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" s="17"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="B16" s="17"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="28"/>
       <c r="B17" s="17"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="28"/>
       <c r="B18" s="17"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="17"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="28"/>
       <c r="B20" s="17"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="28"/>
       <c r="B21" s="17"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="28"/>
       <c r="B23" s="17"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="28"/>
       <c r="B24" s="17"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="28"/>
       <c r="B25" s="17"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="28"/>
       <c r="B29" s="17"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="28"/>
       <c r="B30" s="17"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="28"/>
       <c r="B31" s="17"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="28"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="28"/>
       <c r="B33" s="17"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="28"/>
       <c r="B34" s="17"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="28"/>
       <c r="B35" s="17"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="28"/>
       <c r="B37" s="17"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="28"/>
       <c r="B38" s="17"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="28"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
       <c r="B40" s="17"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="28"/>
       <c r="B41" s="17"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="17"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="28"/>
       <c r="B43" s="17"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="28"/>
       <c r="B44" s="17"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="28"/>
       <c r="B45" s="17"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="28"/>
       <c r="B46" s="17"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="28"/>
       <c r="B47" s="17"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="28"/>
       <c r="B48" s="17"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="28"/>
       <c r="B49" s="17"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="28"/>
       <c r="B50" s="17"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="28"/>
       <c r="B51" s="17"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="28"/>
       <c r="B52" s="17"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="28"/>
       <c r="B53" s="17"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="28"/>
       <c r="B54" s="17"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="28"/>
       <c r="B55" s="17"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="28"/>
       <c r="B56" s="17"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="28"/>
       <c r="B57" s="17"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="28"/>
       <c r="B58" s="17"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="28"/>
       <c r="B59" s="17"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="28"/>
       <c r="B60" s="17"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="17"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="28"/>
       <c r="B62" s="17"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="28"/>
       <c r="B63" s="17"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="28"/>
       <c r="B64" s="17"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="28"/>
       <c r="B65" s="17"/>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="28"/>
       <c r="B66" s="17"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="28"/>
       <c r="B67" s="17"/>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="28"/>
       <c r="B68" s="17"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="28"/>
       <c r="B69" s="17"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="28"/>
       <c r="B70" s="17"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="28"/>
       <c r="B71" s="17"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="28"/>
       <c r="B72" s="17"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="28"/>
       <c r="B73" s="17"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="28"/>
       <c r="B74" s="17"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="28"/>
       <c r="B75" s="17"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="28"/>
       <c r="B76" s="17"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="28"/>
       <c r="B77" s="17"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="28"/>
       <c r="B78" s="17"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="28"/>
       <c r="B79" s="17"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="28"/>
       <c r="B80" s="17"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="28"/>
       <c r="B81" s="17"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="28"/>
       <c r="B82" s="17"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="28"/>
       <c r="B83" s="17"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="28"/>
       <c r="B84" s="17"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="28"/>
       <c r="B85" s="17"/>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="28"/>
       <c r="B86" s="17"/>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="28"/>
       <c r="B87" s="17"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="28"/>
       <c r="B88" s="17"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="28"/>
       <c r="B89" s="17"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="28"/>
       <c r="B90" s="17"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="28"/>
       <c r="B91" s="17"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="28"/>
       <c r="B92" s="17"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="28"/>
       <c r="B93" s="17"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="17"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="17"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="28"/>
       <c r="B96" s="17"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="28"/>
       <c r="B97" s="17"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="28"/>
       <c r="B98" s="17"/>
       <c r="C98" s="31"/>
       <c r="D98" s="31"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="28"/>
       <c r="B99" s="17"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="28"/>
       <c r="B100" s="17"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="28"/>
       <c r="B101" s="17"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="28"/>
       <c r="B102" s="17"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="28"/>
       <c r="B103" s="17"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="28"/>
       <c r="B104" s="17"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="28"/>
       <c r="B105" s="17"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="28"/>
       <c r="B106" s="17"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="28"/>
       <c r="B107" s="17"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="28"/>
       <c r="B108" s="17"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="28"/>
       <c r="B109" s="17"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="28"/>
       <c r="B110" s="17"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="28"/>
       <c r="B111" s="17"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="28"/>
       <c r="B112" s="17"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="28"/>
       <c r="B113" s="17"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="28"/>
       <c r="B114" s="17"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="28"/>
       <c r="B115" s="17"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="28"/>
       <c r="B116" s="17"/>
       <c r="C116" s="31"/>
       <c r="D116" s="31"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="28"/>
       <c r="B117" s="17"/>
       <c r="C117" s="31"/>
       <c r="D117" s="31"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="28"/>
       <c r="B118" s="17"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="28"/>
       <c r="B119" s="17"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="28"/>
       <c r="B120" s="17"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="28"/>
       <c r="B121" s="17"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="28"/>
       <c r="B122" s="17"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="28"/>
       <c r="B123" s="17"/>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="28"/>
       <c r="B124" s="17"/>
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="28"/>
       <c r="B125" s="17"/>
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="28"/>
       <c r="B126" s="17"/>
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="28"/>
       <c r="B127" s="17"/>
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="28"/>
       <c r="B128" s="17"/>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="28"/>
       <c r="B129" s="17"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="28"/>
       <c r="B130" s="17"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="28"/>
       <c r="B131" s="17"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="28"/>
       <c r="B132" s="17"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="28"/>
       <c r="B133" s="17"/>
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="28"/>
       <c r="B134" s="17"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="28"/>
       <c r="B135" s="17"/>
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="28"/>
       <c r="B136" s="17"/>
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="28"/>
       <c r="B137" s="17"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="28"/>
       <c r="B138" s="17"/>
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="28"/>
       <c r="B139" s="17"/>
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="28"/>
       <c r="B140" s="17"/>
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="28"/>
       <c r="B141" s="17"/>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="28"/>
       <c r="B142" s="17"/>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="28"/>
       <c r="B143" s="17"/>
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="28"/>
       <c r="B144" s="17"/>
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="28"/>
       <c r="B145" s="17"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="28"/>
       <c r="B146" s="17"/>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="28"/>
       <c r="B147" s="17"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="28"/>
       <c r="B148" s="17"/>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="28"/>
       <c r="B149" s="17"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="28"/>
       <c r="B150" s="17"/>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="28"/>
       <c r="B151" s="17"/>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="28"/>
       <c r="B152" s="17"/>
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="28"/>
       <c r="B153" s="17"/>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="28"/>
       <c r="B154" s="17"/>
       <c r="C154" s="31"/>
       <c r="D154" s="31"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="28"/>
       <c r="B155" s="17"/>
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="28"/>
       <c r="B156" s="17"/>
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="28"/>
       <c r="B157" s="17"/>
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="28"/>
       <c r="B158" s="17"/>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="28"/>
       <c r="B159" s="17"/>
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="28"/>
       <c r="B160" s="17"/>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="28"/>
       <c r="B161" s="17"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="28"/>
       <c r="B162" s="17"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="28"/>
       <c r="B163" s="17"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="28"/>
       <c r="B164" s="17"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="28"/>
       <c r="B165" s="17"/>
       <c r="C165" s="31"/>
       <c r="D165" s="31"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="28"/>
       <c r="B166" s="17"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="28"/>
       <c r="B167" s="17"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="28"/>
       <c r="B168" s="17"/>
       <c r="C168" s="31"/>
       <c r="D168" s="31"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="28"/>
       <c r="B169" s="17"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="28"/>
       <c r="B170" s="17"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="28"/>
       <c r="B171" s="17"/>
       <c r="C171" s="31"/>
       <c r="D171" s="31"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="28"/>
       <c r="B172" s="17"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="28"/>
       <c r="B173" s="17"/>
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="28"/>
       <c r="B174" s="17"/>
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="28"/>
       <c r="B175" s="17"/>
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="28"/>
       <c r="B176" s="17"/>
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="28"/>
       <c r="B177" s="17"/>
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="28"/>
       <c r="B178" s="17"/>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="28"/>
       <c r="B179" s="17"/>
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="28"/>
       <c r="B180" s="17"/>
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="28"/>
       <c r="B181" s="17"/>
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="28"/>
       <c r="B182" s="17"/>
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="28"/>
       <c r="B183" s="17"/>
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="28"/>
       <c r="B184" s="17"/>
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="28"/>
       <c r="B185" s="17"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="28"/>
       <c r="B186" s="17"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="28"/>
       <c r="B187" s="17"/>
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="28"/>
       <c r="B188" s="17"/>
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="28"/>
       <c r="B189" s="17"/>
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="28"/>
       <c r="B190" s="17"/>
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="28"/>
       <c r="B191" s="17"/>
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="28"/>
       <c r="B192" s="17"/>
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="28"/>
       <c r="B193" s="17"/>
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="28"/>
       <c r="B194" s="17"/>
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="28"/>
       <c r="B195" s="17"/>
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="28"/>
       <c r="B196" s="17"/>
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="28"/>
       <c r="B197" s="17"/>
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="28"/>
       <c r="B198" s="17"/>
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="28"/>
       <c r="B199" s="17"/>
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="28"/>
       <c r="B200" s="17"/>
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="29"/>
       <c r="B201" s="22"/>
       <c r="C201" s="31"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A81374-3D07-467C-A7CE-B78C77421184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E3D54-2486-4727-9E50-F2D944F44631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E3D54-2486-4727-9E50-F2D944F44631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6825E-184C-4882-A3C2-BC035503189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6825E-184C-4882-A3C2-BC035503189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AABA60-5616-46D3-9E35-16782CF44698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AABA60-5616-46D3-9E35-16782CF44698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45D396-3D31-40BD-BAA2-3309F2AA229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45D396-3D31-40BD-BAA2-3309F2AA229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A874C-2863-405C-8DAF-C723EB1BDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A874C-2863-405C-8DAF-C723EB1BDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EFB22-158E-4305-825C-4B61C9A31BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/パッケージ.xlsx
+++ b/Workbooks/JA/パッケージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EFB22-158E-4305-825C-4B61C9A31BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912FECF-6E5F-4314-9F94-11C35FC864CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
